--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA811770-11F9-44D7-9174-BC2CA8E46487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B076F209-3244-4AD4-848F-8C3B4FF36EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0DA2B6-01E2-5C01-4783-9C76CFFFD0DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2ABE22-8886-F1C4-298D-09D6D27B6709}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B076F209-3244-4AD4-848F-8C3B4FF36EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08041899-31CB-47C9-97EC-C716ADC9EF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="90">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>geothermal</t>
+  </si>
+  <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>windon</t>
   </si>
   <si>
     <t>BUILD RATE ASSUMPTIONS</t>
@@ -618,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2ABE22-8886-F1C4-298D-09D6D27B6709}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B10E3E4-D931-13E0-6792-720607C9A76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,9 +1150,9 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="str">
         <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
-        <v>0.24244203447374432</v>
+        <v/>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1377,19 +1383,32 @@
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3">
+        <v>84</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>0.12393998695368556</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.40029835465150038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="3">
         <v>0.13646444879321595</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>0.24246061460306279</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <v>0.13634993213800239</v>
       </c>
-      <c r="J11" s="3">
-        <v>0.24244203447374432</v>
+      <c r="J12" s="3">
+        <v>0.21985176055114744</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
@@ -1726,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1738,12 +1757,12 @@
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>70</v>
@@ -1772,7 +1791,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="19">
         <v>10</v>
@@ -2105,7 +2124,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B11" s="12">
         <v>2000</v>
@@ -2231,7 +2250,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B20" s="14">
         <v>2001</v>
@@ -2357,7 +2376,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B29" s="12">
         <v>2002</v>
@@ -2483,7 +2502,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B38" s="14">
         <v>2003</v>
@@ -2609,7 +2628,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B47" s="12">
         <v>2004</v>
@@ -2735,7 +2754,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B56" s="14">
         <v>2005</v>
@@ -2861,7 +2880,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B65" s="12">
         <v>2006</v>
@@ -2987,7 +3006,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B74" s="14">
         <v>2007</v>
@@ -3113,7 +3132,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B83" s="12">
         <v>2008</v>
@@ -3239,7 +3258,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B92" s="14">
         <v>2009</v>
@@ -3365,7 +3384,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B101" s="12">
         <v>2010</v>
@@ -3491,7 +3510,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B110" s="14">
         <v>2011</v>
@@ -3617,7 +3636,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B119" s="12">
         <v>2012</v>
@@ -3743,7 +3762,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B128" s="14">
         <v>2013</v>
@@ -3869,7 +3888,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B137" s="12">
         <v>2014</v>
@@ -3995,7 +4014,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B146" s="14">
         <v>2015</v>
@@ -4121,7 +4140,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B155" s="12">
         <v>2016</v>
@@ -4247,7 +4266,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B164" s="14">
         <v>2017</v>
@@ -4373,7 +4392,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B173" s="12">
         <v>2018</v>
@@ -4499,7 +4518,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B182" s="14">
         <v>2019</v>
@@ -4625,7 +4644,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B191" s="12">
         <v>2020</v>
@@ -4751,7 +4770,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B200" s="14">
         <v>2021</v>
@@ -4877,7 +4896,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B209" s="12">
         <v>2022</v>
@@ -5003,7 +5022,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B218" s="14">
         <v>2023</v>
@@ -5129,7 +5148,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B227" s="12">
         <v>2000</v>
@@ -5255,7 +5274,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B236" s="14">
         <v>2001</v>
@@ -5381,7 +5400,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B245" s="12">
         <v>2002</v>
@@ -5507,7 +5526,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B254" s="14">
         <v>2003</v>
@@ -5633,7 +5652,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B263" s="12">
         <v>2004</v>
@@ -5759,7 +5778,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B272" s="14">
         <v>2005</v>
@@ -5885,7 +5904,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B281" s="12">
         <v>2006</v>
@@ -6011,7 +6030,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B290" s="14">
         <v>2007</v>
@@ -6137,7 +6156,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B299" s="12">
         <v>2008</v>
@@ -6263,7 +6282,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B308" s="14">
         <v>2009</v>
@@ -6389,7 +6408,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B317" s="12">
         <v>2010</v>
@@ -6515,7 +6534,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B326" s="14">
         <v>2011</v>
@@ -6641,7 +6660,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B335" s="12">
         <v>2012</v>
@@ -6767,7 +6786,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B344" s="14">
         <v>2013</v>
@@ -6893,7 +6912,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B353" s="12">
         <v>2014</v>
@@ -7019,7 +7038,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B362" s="14">
         <v>2015</v>
@@ -7145,7 +7164,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B371" s="12">
         <v>2016</v>
@@ -7271,7 +7290,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B380" s="14">
         <v>2017</v>
@@ -7397,7 +7416,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B389" s="12">
         <v>2018</v>
@@ -7523,7 +7542,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B398" s="14">
         <v>2019</v>
@@ -7649,7 +7668,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B407" s="12">
         <v>2020</v>
@@ -7775,7 +7794,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B416" s="14">
         <v>2021</v>
@@ -7901,7 +7920,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B425" s="12">
         <v>2022</v>
@@ -8027,7 +8046,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B434" s="14">
         <v>2023</v>
@@ -8153,7 +8172,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B443" s="12">
         <v>2000</v>
@@ -8279,7 +8298,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B452" s="14">
         <v>2001</v>
@@ -8405,7 +8424,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B461" s="12">
         <v>2002</v>
@@ -8531,7 +8550,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B470" s="14">
         <v>2003</v>
@@ -8657,7 +8676,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B479" s="12">
         <v>2004</v>
@@ -8783,7 +8802,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B488" s="14">
         <v>2005</v>
@@ -8909,7 +8928,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B497" s="12">
         <v>2006</v>
@@ -9035,7 +9054,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B506" s="14">
         <v>2007</v>
@@ -9161,7 +9180,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B515" s="12">
         <v>2008</v>
@@ -9287,7 +9306,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B524" s="14">
         <v>2009</v>
@@ -9413,7 +9432,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B533" s="12">
         <v>2010</v>
@@ -9539,7 +9558,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B542" s="14">
         <v>2011</v>
@@ -9665,7 +9684,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B551" s="12">
         <v>2012</v>
@@ -9791,7 +9810,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B560" s="14">
         <v>2013</v>
@@ -9917,7 +9936,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B569" s="12">
         <v>2014</v>
@@ -10043,7 +10062,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B578" s="14">
         <v>2015</v>
@@ -10169,7 +10188,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B587" s="12">
         <v>2016</v>
@@ -10295,7 +10314,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B596" s="14">
         <v>2017</v>
@@ -10421,7 +10440,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B605" s="12">
         <v>2018</v>
@@ -10547,7 +10566,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B614" s="14">
         <v>2019</v>
@@ -10673,7 +10692,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B623" s="12">
         <v>2020</v>
@@ -10799,7 +10818,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B632" s="14">
         <v>2021</v>
@@ -10925,7 +10944,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B641" s="12">
         <v>2022</v>
@@ -11051,7 +11070,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="14" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B650" s="14">
         <v>2023</v>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08041899-31CB-47C9-97EC-C716ADC9EF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3615E18B-421A-4F26-9DB3-29580713CA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B10E3E4-D931-13E0-6792-720607C9A76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F342F0FC-337A-D68D-FB3F-52E87F6EF572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3615E18B-421A-4F26-9DB3-29580713CA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F329AC-E7F5-4330-B632-3EC6F3AF8543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F342F0FC-337A-D68D-FB3F-52E87F6EF572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B163E5F-5E4F-00E1-6F70-677C5B887AAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F329AC-E7F5-4330-B632-3EC6F3AF8543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7421B60-CF12-44EC-838B-D18A058E1D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B163E5F-5E4F-00E1-6F70-677C5B887AAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E6F4BF-048B-B331-F565-91745DE7B37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7421B60-CF12-44EC-838B-D18A058E1D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A26BEA5-B439-4069-8796-A0E85032A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E6F4BF-048B-B331-F565-91745DE7B37A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F90DBE-8B44-B649-DA1D-A8291759CDC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A26BEA5-B439-4069-8796-A0E85032A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D72FF6-72EB-4B78-B04F-7C449753C246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F90DBE-8B44-B649-DA1D-A8291759CDC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99B38C5-0B6F-C9C1-F7BA-42628016A3D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D72FF6-72EB-4B78-B04F-7C449753C246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5496A9FD-51BD-4C24-AC8A-C5C0125BDCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99B38C5-0B6F-C9C1-F7BA-42628016A3D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2AE17B-3537-4C1F-FB3B-4E94CBCA86E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5496A9FD-51BD-4C24-AC8A-C5C0125BDCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C91FBC5E-2711-4B14-8047-2B96FC96DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2AE17B-3537-4C1F-FB3B-4E94CBCA86E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE788F5-F243-64A4-0A83-2F5F654C9C92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C91FBC5E-2711-4B14-8047-2B96FC96DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0864BC-B4BF-44B3-9AD7-D459D57CB467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="92">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>~UC_T: uc_rhsrt</t>
+  </si>
+  <si>
+    <t>\I: solar</t>
+  </si>
+  <si>
+    <t>\I: wind</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -624,7 +630,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE788F5-F243-64A4-0A83-2F5F654C9C92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2672FAA6-9FC5-A098-D934-918F57F090F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1116,17 +1122,17 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="str">
         <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
-        <v>0.11452491530550409</v>
+        <v/>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1145,7 +1151,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1396,7 +1402,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3">
         <v>0.13646444879321595</v>
@@ -1730,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1745,7 +1751,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1757,12 +1763,12 @@
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>70</v>
@@ -1791,7 +1797,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="19">
         <v>10</v>
@@ -2124,7 +2130,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B11" s="12">
         <v>2000</v>
@@ -2250,7 +2256,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="14">
         <v>2001</v>
@@ -2376,7 +2382,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" s="12">
         <v>2002</v>
@@ -2502,7 +2508,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" s="14">
         <v>2003</v>
@@ -2628,7 +2634,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="12">
         <v>2004</v>
@@ -2754,7 +2760,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="14">
         <v>2005</v>
@@ -2880,7 +2886,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" s="12">
         <v>2006</v>
@@ -3006,7 +3012,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74" s="14">
         <v>2007</v>
@@ -3132,7 +3138,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83" s="12">
         <v>2008</v>
@@ -3258,7 +3264,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B92" s="14">
         <v>2009</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B101" s="12">
         <v>2010</v>
@@ -3510,7 +3516,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B110" s="14">
         <v>2011</v>
@@ -3636,7 +3642,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B119" s="12">
         <v>2012</v>
@@ -3762,7 +3768,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B128" s="14">
         <v>2013</v>
@@ -3888,7 +3894,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B137" s="12">
         <v>2014</v>
@@ -4014,7 +4020,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B146" s="14">
         <v>2015</v>
@@ -4140,7 +4146,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B155" s="12">
         <v>2016</v>
@@ -4266,7 +4272,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B164" s="14">
         <v>2017</v>
@@ -4392,7 +4398,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B173" s="12">
         <v>2018</v>
@@ -4518,7 +4524,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B182" s="14">
         <v>2019</v>
@@ -4644,7 +4650,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B191" s="12">
         <v>2020</v>
@@ -4770,7 +4776,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B200" s="14">
         <v>2021</v>
@@ -4896,7 +4902,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B209" s="12">
         <v>2022</v>
@@ -5022,7 +5028,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B218" s="14">
         <v>2023</v>
@@ -5148,7 +5154,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B227" s="12">
         <v>2000</v>
@@ -5274,7 +5280,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B236" s="14">
         <v>2001</v>
@@ -5400,7 +5406,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B245" s="12">
         <v>2002</v>
@@ -5526,7 +5532,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B254" s="14">
         <v>2003</v>
@@ -5652,7 +5658,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B263" s="12">
         <v>2004</v>
@@ -5778,7 +5784,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B272" s="14">
         <v>2005</v>
@@ -5904,7 +5910,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B281" s="12">
         <v>2006</v>
@@ -6030,7 +6036,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B290" s="14">
         <v>2007</v>
@@ -6156,7 +6162,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B299" s="12">
         <v>2008</v>
@@ -6282,7 +6288,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B308" s="14">
         <v>2009</v>
@@ -6408,7 +6414,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B317" s="12">
         <v>2010</v>
@@ -6534,7 +6540,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B326" s="14">
         <v>2011</v>
@@ -6660,7 +6666,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B335" s="12">
         <v>2012</v>
@@ -6786,7 +6792,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B344" s="14">
         <v>2013</v>
@@ -6912,7 +6918,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B353" s="12">
         <v>2014</v>
@@ -7038,7 +7044,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B362" s="14">
         <v>2015</v>
@@ -7164,7 +7170,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B371" s="12">
         <v>2016</v>
@@ -7290,7 +7296,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B380" s="14">
         <v>2017</v>
@@ -7416,7 +7422,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B389" s="12">
         <v>2018</v>
@@ -7542,7 +7548,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B398" s="14">
         <v>2019</v>
@@ -7668,7 +7674,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B407" s="12">
         <v>2020</v>
@@ -7794,7 +7800,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B416" s="14">
         <v>2021</v>
@@ -7920,7 +7926,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B425" s="12">
         <v>2022</v>
@@ -8046,7 +8052,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B434" s="14">
         <v>2023</v>
@@ -8172,7 +8178,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B443" s="12">
         <v>2000</v>
@@ -8298,7 +8304,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B452" s="14">
         <v>2001</v>
@@ -8424,7 +8430,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B461" s="12">
         <v>2002</v>
@@ -8550,7 +8556,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B470" s="14">
         <v>2003</v>
@@ -8676,7 +8682,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B479" s="12">
         <v>2004</v>
@@ -8802,7 +8808,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B488" s="14">
         <v>2005</v>
@@ -8928,7 +8934,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B497" s="12">
         <v>2006</v>
@@ -9054,7 +9060,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B506" s="14">
         <v>2007</v>
@@ -9180,7 +9186,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B515" s="12">
         <v>2008</v>
@@ -9306,7 +9312,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B524" s="14">
         <v>2009</v>
@@ -9432,7 +9438,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B533" s="12">
         <v>2010</v>
@@ -9558,7 +9564,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B542" s="14">
         <v>2011</v>
@@ -9684,7 +9690,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B551" s="12">
         <v>2012</v>
@@ -9810,7 +9816,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B560" s="14">
         <v>2013</v>
@@ -9936,7 +9942,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B569" s="12">
         <v>2014</v>
@@ -10062,7 +10068,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B578" s="14">
         <v>2015</v>
@@ -10188,7 +10194,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B587" s="12">
         <v>2016</v>
@@ -10314,7 +10320,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B596" s="14">
         <v>2017</v>
@@ -10440,7 +10446,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B605" s="12">
         <v>2018</v>
@@ -10566,7 +10572,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B614" s="14">
         <v>2019</v>
@@ -10692,7 +10698,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B623" s="12">
         <v>2020</v>
@@ -10818,7 +10824,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B632" s="14">
         <v>2021</v>
@@ -10944,7 +10950,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B641" s="12">
         <v>2022</v>
@@ -11070,7 +11076,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B650" s="14">
         <v>2023</v>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0864BC-B4BF-44B3-9AD7-D459D57CB467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{267BD893-3544-403A-8FB0-C74AE25CE15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2672FAA6-9FC5-A098-D934-918F57F090F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF6E1EE-C598-7E9C-F3B3-93DFE961834F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7BA69A-D087-4337-87C8-BB07F4E649C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCFB53-7C84-4C61-845E-0AF1FD841D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="92">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>DEU</t>
+  </si>
+  <si>
+    <t>wind*</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
   <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E40">
         <v>-1</v>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCFB53-7C84-4C61-845E-0AF1FD841D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC03DEE4-C177-4971-81A0-14BDAE9D351C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1744,8 +1744,8 @@
         <v>uce_buildrate_wind</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C23" si="1">A21</f>
-        <v>wind</v>
+        <f>A21&amp;"*"</f>
+        <v>wind*</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
@@ -1774,7 +1774,7 @@
         <v>uce_buildrate_hydro</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C21:C23" si="1">A22</f>
         <v>hydro</v>
       </c>
       <c r="D22" t="s">

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC03DEE4-C177-4971-81A0-14BDAE9D351C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{847B6553-ED45-48B2-9437-955A8DE67EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -354,6 +354,9 @@
     <t>\I: wind</t>
   </si>
   <si>
+    <t>wind*</t>
+  </si>
+  <si>
     <t>geothermal</t>
   </si>
   <si>
@@ -370,9 +373,6 @@
   </si>
   <si>
     <t>DEU</t>
-  </si>
-  <si>
-    <t>wind*</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v/>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="3">
         <v>0.13646444879321595</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -1608,12 +1608,12 @@
   <sheetData>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1774,7 +1774,7 @@
         <v>uce_buildrate_hydro</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C21:C23" si="1">A22</f>
+        <f t="shared" ref="C22:C23" si="1">A22</f>
         <v>hydro</v>
       </c>
       <c r="D22" t="s">
@@ -1968,7 +1968,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>2001</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>2002</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37">
         <v>2003</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46">
         <v>2004</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55">
         <v>2005</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64">
         <v>2006</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73">
         <v>2007</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>2008</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91">
         <v>2009</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B100">
         <v>2010</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B109">
         <v>2011</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B118">
         <v>2012</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B127">
         <v>2013</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B136">
         <v>2014</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B145">
         <v>2015</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B154">
         <v>2016</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B163">
         <v>2017</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B172">
         <v>2018</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B181">
         <v>2019</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B190">
         <v>2020</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B199">
         <v>2021</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B208">
         <v>2022</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B217">
         <v>2023</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B226">
         <v>2000</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B235">
         <v>2001</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B244">
         <v>2002</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B253">
         <v>2003</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B262">
         <v>2004</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B271">
         <v>2005</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B280">
         <v>2006</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B289">
         <v>2007</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B298">
         <v>2008</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B307">
         <v>2009</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B316">
         <v>2010</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B325">
         <v>2011</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B334">
         <v>2012</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B343">
         <v>2013</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B352">
         <v>2014</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B361">
         <v>2015</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B370">
         <v>2016</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B379">
         <v>2017</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B388">
         <v>2018</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B397">
         <v>2019</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B406">
         <v>2020</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B415">
         <v>2021</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B424">
         <v>2022</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B433">
         <v>2023</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B442">
         <v>2000</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B451">
         <v>2001</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B460">
         <v>2002</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B469">
         <v>2003</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B478">
         <v>2004</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B487">
         <v>2005</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B496">
         <v>2006</v>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B505">
         <v>2007</v>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B514">
         <v>2008</v>
@@ -9150,7 +9150,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B523">
         <v>2009</v>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B532">
         <v>2010</v>
@@ -9402,7 +9402,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B541">
         <v>2011</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B550">
         <v>2012</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B559">
         <v>2013</v>
@@ -9780,7 +9780,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B568">
         <v>2014</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B577">
         <v>2015</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B586">
         <v>2016</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B595">
         <v>2017</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B604">
         <v>2018</v>
@@ -10410,7 +10410,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B613">
         <v>2019</v>
@@ -10536,7 +10536,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B622">
         <v>2020</v>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B631">
         <v>2021</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B640">
         <v>2022</v>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B649">
         <v>2023</v>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{847B6553-ED45-48B2-9437-955A8DE67EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C5D7F1-6762-4D2D-8DC3-4F12C0168ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -836,9 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -878,7 +876,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -1145,7 +1143,7 @@
       </c>
       <c r="AJ8">
         <f>AI8*$AD$1</f>
-        <v>0.29510813323277146</v>
+        <v>6.5579585162838114E-2</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1213,7 +1211,7 @@
       </c>
       <c r="AJ9">
         <f>AI9*$AD$1</f>
-        <v>0.22851577227598341</v>
+        <v>5.0781282727996313E-2</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1588,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C5D7F1-6762-4D2D-8DC3-4F12C0168ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9705ECEC-D405-4FBE-B5DA-FF4E22165C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9705ECEC-D405-4FBE-B5DA-FF4E22165C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD049E2-DE92-43D1-A4A6-985F5A380D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
